--- a/JANE WAGURA.xlsx
+++ b/JANE WAGURA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="975" windowWidth="17475" windowHeight="10920" tabRatio="668" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="1200" yWindow="975" windowWidth="17475" windowHeight="10920" tabRatio="668" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY 21" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="101">
   <si>
     <t>RENT STATEMENT</t>
   </si>
@@ -332,7 +332,7 @@
     <t>DECEMBER</t>
   </si>
   <si>
-    <t>D</t>
+    <t>PAID ON 10/12</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1820,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,12 +3265,12 @@
         <v>13850</v>
       </c>
       <c r="J15" s="37">
-        <f>500+500+500+500+1500+2000+600+1000</f>
-        <v>7100</v>
+        <f>500+500+500+500+500+500+500+500+1500+2000+600</f>
+        <v>8100</v>
       </c>
       <c r="K15" s="37">
         <f t="shared" si="1"/>
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="L15" s="8"/>
     </row>
@@ -3365,11 +3365,11 @@
       </c>
       <c r="J18" s="38">
         <f t="shared" si="2"/>
-        <v>92535</v>
+        <v>93535</v>
       </c>
       <c r="K18" s="38">
         <f>SUM(K5:K17)</f>
-        <v>18300</v>
+        <v>17300</v>
       </c>
       <c r="L18" s="38">
         <f t="shared" si="2"/>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="G23" s="19">
         <f>J18</f>
-        <v>92535</v>
+        <v>93535</v>
       </c>
       <c r="H23" s="20">
         <v>0.1</v>
@@ -3681,7 +3681,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="26">
         <f>G23+G24-H30</f>
-        <v>52290</v>
+        <v>53290</v>
       </c>
       <c r="H36" s="26">
         <f>SUM(H32:H35)</f>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="I36" s="26">
         <f>G36-H36</f>
-        <v>-23160</v>
+        <v>-22160</v>
       </c>
       <c r="M36" s="27"/>
     </row>
@@ -3785,7 +3785,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3893,11 +3893,12 @@
         <v>9950</v>
       </c>
       <c r="J5" s="37">
-        <v>5500</v>
+        <f>5500+4000+450</f>
+        <v>9950</v>
       </c>
       <c r="K5" s="37">
         <f>I5-J5</f>
-        <v>4450</v>
+        <v>0</v>
       </c>
       <c r="L5" s="8"/>
     </row>
@@ -3908,27 +3909,23 @@
       <c r="B6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="39">
-        <v>6000</v>
-      </c>
+      <c r="C6" s="39"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="37">
-        <v>200</v>
-      </c>
+      <c r="G6" s="37"/>
       <c r="H6" s="37">
         <f>'NOVEMBER 21'!K6</f>
         <v>7550</v>
       </c>
       <c r="I6" s="37">
-        <f t="shared" ref="I6:I16" si="0">C6+H6+F6+G6+D6+E6</f>
-        <v>13750</v>
+        <f>C6+H6+F6+G6+D6+E6+6000</f>
+        <v>13550</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="37">
-        <f t="shared" ref="K6:K17" si="1">I6-J6</f>
-        <v>13750</v>
+        <f t="shared" ref="K6:K17" si="0">I6-J6</f>
+        <v>13550</v>
       </c>
       <c r="L6" s="8"/>
     </row>
@@ -3944,7 +3941,9 @@
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="F7" s="37">
+        <v>300</v>
+      </c>
       <c r="G7" s="37">
         <v>200</v>
       </c>
@@ -3953,13 +3952,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="37">
+        <f t="shared" ref="I7:I16" si="1">C7+H7+F7+G7+D7+E7</f>
+        <v>5500</v>
+      </c>
+      <c r="J7" s="37">
+        <v>5500</v>
+      </c>
+      <c r="K7" s="37">
         <f t="shared" si="0"/>
-        <v>5200</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37">
-        <f t="shared" si="1"/>
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="L7" s="8"/>
     </row>
@@ -3986,14 +3987,14 @@
         <v>1220</v>
       </c>
       <c r="I8" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11020</v>
       </c>
       <c r="J8" s="37">
         <v>9800</v>
       </c>
       <c r="K8" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1220</v>
       </c>
       <c r="L8" s="8"/>
@@ -4021,14 +4022,14 @@
         <v>0</v>
       </c>
       <c r="I9" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6800</v>
       </c>
       <c r="J9" s="37">
         <v>6800</v>
       </c>
       <c r="K9" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9" s="8"/>
@@ -4056,13 +4057,15 @@
         <v>130</v>
       </c>
       <c r="I10" s="37">
-        <f t="shared" si="0"/>
-        <v>5630</v>
-      </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37">
         <f t="shared" si="1"/>
         <v>5630</v>
+      </c>
+      <c r="J10" s="37">
+        <v>5585</v>
+      </c>
+      <c r="K10" s="37">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="L10" s="8"/>
     </row>
@@ -4089,13 +4092,15 @@
         <v>0</v>
       </c>
       <c r="I11" s="37">
-        <f t="shared" si="0"/>
-        <v>9800</v>
-      </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37">
         <f t="shared" si="1"/>
         <v>9800</v>
+      </c>
+      <c r="J11" s="37">
+        <v>9800</v>
+      </c>
+      <c r="K11" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L11" s="8"/>
     </row>
@@ -4122,14 +4127,14 @@
         <v>300</v>
       </c>
       <c r="I12" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11000</v>
       </c>
       <c r="J12" s="37">
         <v>10700</v>
       </c>
       <c r="K12" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="L12" s="8"/>
@@ -4157,13 +4162,16 @@
         <v>1850</v>
       </c>
       <c r="I13" s="37">
-        <f t="shared" si="0"/>
-        <v>7650</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37">
         <f t="shared" si="1"/>
         <v>7650</v>
+      </c>
+      <c r="J13" s="37">
+        <f>6000</f>
+        <v>6000</v>
+      </c>
+      <c r="K13" s="37">
+        <f t="shared" si="0"/>
+        <v>1650</v>
       </c>
       <c r="L13" s="8"/>
     </row>
@@ -4190,14 +4198,14 @@
         <v>500</v>
       </c>
       <c r="I14" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5850</v>
       </c>
       <c r="J14" s="37">
         <v>5350</v>
       </c>
       <c r="K14" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="L14" s="8"/>
@@ -4222,18 +4230,19 @@
       </c>
       <c r="H15" s="37">
         <f>'NOVEMBER 21'!K15</f>
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="I15" s="37">
+        <f t="shared" si="1"/>
+        <v>12850</v>
+      </c>
+      <c r="J15" s="37">
+        <f>1000+3850+900</f>
+        <v>5750</v>
+      </c>
+      <c r="K15" s="37">
         <f t="shared" si="0"/>
-        <v>13850</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="37" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>7100</v>
       </c>
       <c r="L15" s="8"/>
     </row>
@@ -4260,15 +4269,15 @@
         <v>0</v>
       </c>
       <c r="I16" s="37">
+        <f t="shared" si="1"/>
+        <v>5950</v>
+      </c>
+      <c r="J16" s="37">
+        <v>5950</v>
+      </c>
+      <c r="K16" s="37">
         <f t="shared" si="0"/>
-        <v>5950</v>
-      </c>
-      <c r="J16" s="37">
-        <v>6000</v>
-      </c>
-      <c r="K16" s="37">
-        <f t="shared" si="1"/>
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="L16" s="8"/>
     </row>
@@ -4290,7 +4299,7 @@
       </c>
       <c r="J17" s="37"/>
       <c r="K17" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17" s="8"/>
@@ -4302,7 +4311,7 @@
       </c>
       <c r="C18" s="38">
         <f t="shared" ref="C18:L18" si="2">SUM(C5:C17)</f>
-        <v>79000</v>
+        <v>73000</v>
       </c>
       <c r="D18" s="38">
         <f t="shared" si="2"/>
@@ -4314,27 +4323,27 @@
       </c>
       <c r="F18" s="38">
         <f t="shared" si="2"/>
-        <v>6750</v>
+        <v>7050</v>
       </c>
       <c r="G18" s="38">
         <f t="shared" si="2"/>
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="H18" s="38">
         <f>SUM(H5:H17)</f>
-        <v>18300</v>
+        <v>17300</v>
       </c>
       <c r="I18" s="38">
         <f t="shared" si="2"/>
-        <v>106450</v>
+        <v>105550</v>
       </c>
       <c r="J18" s="38">
         <f t="shared" si="2"/>
-        <v>44150</v>
-      </c>
-      <c r="K18" s="38" t="e">
+        <v>81185</v>
+      </c>
+      <c r="K18" s="38">
         <f>SUM(K5:K17)</f>
-        <v>#VALUE!</v>
+        <v>24365</v>
       </c>
       <c r="L18" s="38">
         <f t="shared" si="2"/>
@@ -4399,7 +4408,7 @@
       </c>
       <c r="C23" s="19">
         <f>C18</f>
-        <v>79000</v>
+        <v>73000</v>
       </c>
       <c r="D23" s="20">
         <v>0.1</v>
@@ -4410,7 +4419,7 @@
       </c>
       <c r="G23" s="19">
         <f>J18</f>
-        <v>44150</v>
+        <v>81185</v>
       </c>
       <c r="H23" s="20">
         <v>0.1</v>
@@ -4432,7 +4441,7 @@
       </c>
       <c r="G24" s="19">
         <f>'NOVEMBER 21'!I36</f>
-        <v>-23160</v>
+        <v>-22160</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -4473,7 +4482,7 @@
       </c>
       <c r="C27" s="19">
         <f>F18</f>
-        <v>6750</v>
+        <v>7050</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -4488,7 +4497,7 @@
       </c>
       <c r="C28" s="19">
         <f>G18</f>
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -4519,7 +4528,7 @@
       <c r="C30" s="22"/>
       <c r="D30" s="11">
         <f>C23*D23</f>
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
@@ -4528,7 +4537,7 @@
       <c r="G30" s="22"/>
       <c r="H30" s="11">
         <f>D30</f>
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="I30" s="11"/>
     </row>
@@ -4545,6 +4554,10 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
+      <c r="L31">
+        <f>4860-3000</f>
+        <v>1860</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="50" t="s">
@@ -4573,8 +4586,8 @@
         <v>5000</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="37">
-        <v>1500</v>
+      <c r="F33" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8">
@@ -4587,24 +4600,36 @@
         <v>73</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="8"/>
+      <c r="D34" s="8">
+        <v>2500</v>
+      </c>
       <c r="E34" s="8"/>
       <c r="F34" s="37" t="s">
         <v>73</v>
       </c>
       <c r="G34" s="37"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="8">
+        <v>2500</v>
+      </c>
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="37"/>
+      <c r="B35" s="37" t="s">
+        <v>100</v>
+      </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="8"/>
+      <c r="D35" s="8">
+        <v>64450</v>
+      </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="37"/>
+      <c r="F35" s="37" t="s">
+        <v>100</v>
+      </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="11"/>
+      <c r="H35" s="8">
+        <v>64450</v>
+      </c>
+      <c r="I35" s="8"/>
       <c r="K35" s="27"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -4613,28 +4638,28 @@
       </c>
       <c r="C36" s="26">
         <f>C23+C24+C29+C26+C25+C27+C28-D30</f>
-        <v>75390</v>
+        <v>70090</v>
       </c>
       <c r="D36" s="25">
         <f>SUM(D32:D35)</f>
-        <v>5000</v>
+        <v>71950</v>
       </c>
       <c r="E36" s="26">
         <f>C36-D36</f>
-        <v>70390</v>
+        <v>-1860</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="26">
         <f>G23+G24-H30</f>
-        <v>13090</v>
+        <v>51725</v>
       </c>
       <c r="H36" s="26">
         <f>SUM(H32:H35)</f>
-        <v>5000</v>
+        <v>71950</v>
       </c>
       <c r="I36" s="26">
         <f>G36-H36</f>
-        <v>8090</v>
+        <v>-20225</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
